--- a/biology/Botanique/Ephedra_distachya_subsp._helvetica/Ephedra_distachya_subsp._helvetica.xlsx
+++ b/biology/Botanique/Ephedra_distachya_subsp._helvetica/Ephedra_distachya_subsp._helvetica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephedra distachya subsp. helvetica est une sous-espèce de l'Éphèdre à deux épis ou raisin de mer .
-Il s'agit d'un arbrisseau nain de vingt à quarante centimètres de hauteur dont l'allure ressemble à celle des prêles. Cette plante sub-endémique des Alpes pousse dans les régions basses de la vallée du Rhône (canton du Valais, Suisse) et dans quelques zones de la vallée d'Aoste (Italie)[3]. Elle caractérise la steppe à armoise et uvette, milieu rocailleux chaud et aride[4].
+Il s'agit d'un arbrisseau nain de vingt à quarante centimètres de hauteur dont l'allure ressemble à celle des prêles. Cette plante sub-endémique des Alpes pousse dans les régions basses de la vallée du Rhône (canton du Valais, Suisse) et dans quelques zones de la vallée d'Aoste (Italie). Elle caractérise la steppe à armoise et uvette, milieu rocailleux chaud et aride.
 </t>
         </is>
       </c>
